--- a/state_results/Rivers/WhitebaitCreekatEdinburghTerrace_2dc2703b1a.xlsx
+++ b/state_results/Rivers/WhitebaitCreekatEdinburghTerrace_2dc2703b1a.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U41"/>
+  <dimension ref="A1:U57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -732,7 +732,7 @@
         <v>0.18125</v>
       </c>
       <c r="G4" t="n">
-        <v>0.253772587188379</v>
+        <v>0.253762984106252</v>
       </c>
       <c r="H4" t="n">
         <v>0.854220528527582</v>
@@ -813,7 +813,7 @@
         <v>0.18125</v>
       </c>
       <c r="G5" t="n">
-        <v>0.253772587188379</v>
+        <v>0.253762984106252</v>
       </c>
       <c r="H5" t="n">
         <v>0.854220528527582</v>
@@ -894,7 +894,7 @@
         <v>0.5665</v>
       </c>
       <c r="G6" t="n">
-        <v>0.573844362544812</v>
+        <v>0.573227640253274</v>
       </c>
       <c r="H6" t="n">
         <v>1.76</v>
@@ -975,7 +975,7 @@
         <v>0.5665</v>
       </c>
       <c r="G7" t="n">
-        <v>0.573844362544812</v>
+        <v>0.573227640253274</v>
       </c>
       <c r="H7" t="n">
         <v>1.76</v>
@@ -1680,7 +1680,7 @@
         <v>0.21603</v>
       </c>
       <c r="G16" t="n">
-        <v>0.271149849528942</v>
+        <v>0.271142099673189</v>
       </c>
       <c r="H16" t="n">
         <v>0.854220528527582</v>
@@ -1761,7 +1761,7 @@
         <v>0.21603</v>
       </c>
       <c r="G17" t="n">
-        <v>0.271149849528942</v>
+        <v>0.271142099673189</v>
       </c>
       <c r="H17" t="n">
         <v>0.854220528527582</v>
@@ -1842,7 +1842,7 @@
         <v>0.616</v>
       </c>
       <c r="G18" t="n">
-        <v>0.579042871222898</v>
+        <v>0.578541131053511</v>
       </c>
       <c r="H18" t="n">
         <v>1.76</v>
@@ -1923,7 +1923,7 @@
         <v>0.616</v>
       </c>
       <c r="G19" t="n">
-        <v>0.579042871222898</v>
+        <v>0.578541131053511</v>
       </c>
       <c r="H19" t="n">
         <v>1.76</v>
@@ -2968,7 +2968,7 @@
         <v>0.16626</v>
       </c>
       <c r="G32" t="n">
-        <v>0.239431915145431</v>
+        <v>0.239414178053617</v>
       </c>
       <c r="H32" t="n">
         <v>0.85</v>
@@ -3049,7 +3049,7 @@
         <v>0.16626</v>
       </c>
       <c r="G33" t="n">
-        <v>0.239431915145431</v>
+        <v>0.239414178053617</v>
       </c>
       <c r="H33" t="n">
         <v>0.85</v>
@@ -3130,7 +3130,7 @@
         <v>0.627</v>
       </c>
       <c r="G34" t="n">
-        <v>0.602250506933637</v>
+        <v>0.601740116071675</v>
       </c>
       <c r="H34" t="n">
         <v>1.76</v>
@@ -3211,7 +3211,7 @@
         <v>0.627</v>
       </c>
       <c r="G35" t="n">
-        <v>0.602250506933637</v>
+        <v>0.601740116071675</v>
       </c>
       <c r="H35" t="n">
         <v>1.76</v>
@@ -3724,6 +3724,1294 @@
         </is>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Whitebait Creek at Edinburgh Terrace</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.0785</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.111948275862069</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.946</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.2128</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>0.1555</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.16448</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.2046</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1790056</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5517935</v>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Mana_13a</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Whitebait Creek at Edinburgh Terrace</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0.0785</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.111948275862069</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.946</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.2128</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>0.1555</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.16448</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.2046</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1790056</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5517935</v>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Mana_13a</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Whitebait Creek at Edinburgh Terrace</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>262.5</v>
+      </c>
+      <c r="G44" t="n">
+        <v>518.163838671249</v>
+      </c>
+      <c r="H44" t="n">
+        <v>9700</v>
+      </c>
+      <c r="I44" t="n">
+        <v>1120</v>
+      </c>
+      <c r="J44" t="n">
+        <v>18.9655172413793</v>
+      </c>
+      <c r="K44" t="n">
+        <v>50</v>
+      </c>
+      <c r="L44" t="n">
+        <v>201.5</v>
+      </c>
+      <c r="M44" t="n">
+        <v>570</v>
+      </c>
+      <c r="N44" t="n">
+        <v>886</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1790056</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5517935</v>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Mana_13a</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Whitebait Creek at Edinburgh Terrace</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>262.5</v>
+      </c>
+      <c r="G45" t="n">
+        <v>518.163838671249</v>
+      </c>
+      <c r="H45" t="n">
+        <v>9700</v>
+      </c>
+      <c r="I45" t="n">
+        <v>1120</v>
+      </c>
+      <c r="J45" t="n">
+        <v>18.9655172413793</v>
+      </c>
+      <c r="K45" t="n">
+        <v>50</v>
+      </c>
+      <c r="L45" t="n">
+        <v>201.5</v>
+      </c>
+      <c r="M45" t="n">
+        <v>570</v>
+      </c>
+      <c r="N45" t="n">
+        <v>886</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1790056</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5517935</v>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Mana_13a</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Whitebait Creek at Edinburgh Terrace</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>262.5</v>
+      </c>
+      <c r="G46" t="n">
+        <v>518.163838671249</v>
+      </c>
+      <c r="H46" t="n">
+        <v>9700</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1120</v>
+      </c>
+      <c r="J46" t="n">
+        <v>18.9655172413793</v>
+      </c>
+      <c r="K46" t="n">
+        <v>50</v>
+      </c>
+      <c r="L46" t="n">
+        <v>201.5</v>
+      </c>
+      <c r="M46" t="n">
+        <v>570</v>
+      </c>
+      <c r="N46" t="n">
+        <v>886</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1790056</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5517935</v>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>Mana_13a</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Whitebait Creek at Edinburgh Terrace</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>262.5</v>
+      </c>
+      <c r="G47" t="n">
+        <v>518.163838671249</v>
+      </c>
+      <c r="H47" t="n">
+        <v>9700</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1120</v>
+      </c>
+      <c r="J47" t="n">
+        <v>18.9655172413793</v>
+      </c>
+      <c r="K47" t="n">
+        <v>50</v>
+      </c>
+      <c r="L47" t="n">
+        <v>201.5</v>
+      </c>
+      <c r="M47" t="n">
+        <v>570</v>
+      </c>
+      <c r="N47" t="n">
+        <v>886</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1790056</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5517935</v>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>Mana_13a</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Whitebait Creek at Edinburgh Terrace</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>0.12609</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.184900156157885</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.83691117624023</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.60837</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>0.07829999999999999</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.34424</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.44129</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1790056</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5517935</v>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>Mana_13a</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Whitebait Creek at Edinburgh Terrace</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>0.12609</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.184900156157885</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.83691117624023</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.60837</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>0.07829999999999999</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.34424</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.44129</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1790056</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5517935</v>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>Mana_13a</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Whitebait Creek at Edinburgh Terrace</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>0.608</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.57744650083364</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="I50" t="n">
+        <v>1.086</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.88296</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.99288</v>
+      </c>
+      <c r="O50" t="n">
+        <v>1790056</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5517935</v>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>Mana_13a</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Whitebait Creek at Edinburgh Terrace</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>0.608</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.57744650083364</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="I51" t="n">
+        <v>1.086</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.88296</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.99288</v>
+      </c>
+      <c r="O51" t="n">
+        <v>1790056</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5517935</v>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>Mana_13a</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Whitebait Creek at Edinburgh Terrace</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.881724137931034</v>
+      </c>
+      <c r="H52" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1.748</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1.3264</v>
+      </c>
+      <c r="N52" t="n">
+        <v>1.4458</v>
+      </c>
+      <c r="O52" t="n">
+        <v>1790056</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5517935</v>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>Mana_13a</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Whitebait Creek at Edinburgh Terrace</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.881724137931034</v>
+      </c>
+      <c r="H53" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1.748</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1.3264</v>
+      </c>
+      <c r="N53" t="n">
+        <v>1.4458</v>
+      </c>
+      <c r="O53" t="n">
+        <v>1790056</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5517935</v>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>Mana_13a</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Whitebait Creek at Edinburgh Terrace</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="G54" t="n">
+        <v>2.26396551724138</v>
+      </c>
+      <c r="H54" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="I54" t="n">
+        <v>3.234</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="M54" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="N54" t="n">
+        <v>3.0944</v>
+      </c>
+      <c r="O54" t="n">
+        <v>1790056</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5517935</v>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>Mana_13a</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Whitebait Creek at Edinburgh Terrace</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="G55" t="n">
+        <v>2.26396551724138</v>
+      </c>
+      <c r="H55" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="I55" t="n">
+        <v>3.234</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="M55" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="N55" t="n">
+        <v>3.0944</v>
+      </c>
+      <c r="O55" t="n">
+        <v>1790056</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5517935</v>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>Mana_13a</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Whitebait Creek at Edinburgh Terrace</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.285068965517241</v>
+      </c>
+      <c r="H56" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.5454</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.37028</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.5009400000000001</v>
+      </c>
+      <c r="O56" t="n">
+        <v>1790056</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5517935</v>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>Mana_13a</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Whitebait Creek at Edinburgh Terrace</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.285068965517241</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.5454</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.37028</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.5009400000000001</v>
+      </c>
+      <c r="O57" t="n">
+        <v>1790056</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5517935</v>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>Coastal Manawatu</t>
+        </is>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>Mana_13a</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/WhitebaitCreekatEdinburghTerrace_2dc2703b1a.xlsx
+++ b/state_results/Rivers/WhitebaitCreekatEdinburghTerrace_2dc2703b1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="60">
   <si>
     <t>site name</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>2019 - 2023</t>
+  </si>
+  <si>
+    <t>2020 - 2024</t>
   </si>
   <si>
     <t>RepSite</t>
@@ -548,7 +551,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U57"/>
+  <dimension ref="A1:U73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -633,7 +636,7 @@
         <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F2">
         <v>0.07000000000000001</v>
@@ -648,7 +651,7 @@
         <v>0.2515</v>
       </c>
       <c r="L2">
-        <v>0.124</v>
+        <v>0.114</v>
       </c>
       <c r="M2">
         <v>0.15472</v>
@@ -663,19 +666,19 @@
         <v>5517935</v>
       </c>
       <c r="Q2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -692,7 +695,7 @@
         <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F3">
         <v>0.07000000000000001</v>
@@ -707,7 +710,7 @@
         <v>0.2515</v>
       </c>
       <c r="L3">
-        <v>0.124</v>
+        <v>0.114</v>
       </c>
       <c r="M3">
         <v>0.15472</v>
@@ -722,19 +725,19 @@
         <v>5517935</v>
       </c>
       <c r="Q3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -751,13 +754,13 @@
         <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F4">
         <v>0.18125</v>
       </c>
       <c r="G4">
-        <v>0.253762984106252</v>
+        <v>0.253710636819131</v>
       </c>
       <c r="H4">
         <v>0.854220528527582</v>
@@ -766,7 +769,7 @@
         <v>0.83953</v>
       </c>
       <c r="L4">
-        <v>0.15614</v>
+        <v>0.11233</v>
       </c>
       <c r="M4">
         <v>0.51185</v>
@@ -781,19 +784,19 @@
         <v>5517935</v>
       </c>
       <c r="Q4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -810,13 +813,13 @@
         <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F5">
         <v>0.18125</v>
       </c>
       <c r="G5">
-        <v>0.253762984106252</v>
+        <v>0.253710636819131</v>
       </c>
       <c r="H5">
         <v>0.854220528527582</v>
@@ -825,7 +828,7 @@
         <v>0.83953</v>
       </c>
       <c r="L5">
-        <v>0.15614</v>
+        <v>0.11233</v>
       </c>
       <c r="M5">
         <v>0.51185</v>
@@ -840,19 +843,19 @@
         <v>5517935</v>
       </c>
       <c r="Q5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -869,13 +872,13 @@
         <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F6">
         <v>0.5665</v>
       </c>
       <c r="G6">
-        <v>0.573227640253274</v>
+        <v>0.5729364281950911</v>
       </c>
       <c r="H6">
         <v>1.76</v>
@@ -884,7 +887,7 @@
         <v>1.155</v>
       </c>
       <c r="L6">
-        <v>0.1785</v>
+        <v>0.299</v>
       </c>
       <c r="M6">
         <v>0.92342</v>
@@ -899,19 +902,19 @@
         <v>5517935</v>
       </c>
       <c r="Q6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -928,13 +931,13 @@
         <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F7">
         <v>0.5665</v>
       </c>
       <c r="G7">
-        <v>0.573227640253274</v>
+        <v>0.5729364281950911</v>
       </c>
       <c r="H7">
         <v>1.76</v>
@@ -943,7 +946,7 @@
         <v>1.155</v>
       </c>
       <c r="L7">
-        <v>0.1785</v>
+        <v>0.299</v>
       </c>
       <c r="M7">
         <v>0.92342</v>
@@ -958,19 +961,19 @@
         <v>5517935</v>
       </c>
       <c r="Q7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -984,7 +987,7 @@
         <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F8">
         <v>0.875</v>
@@ -999,7 +1002,7 @@
         <v>2.107</v>
       </c>
       <c r="L8">
-        <v>0.77</v>
+        <v>0.82</v>
       </c>
       <c r="M8">
         <v>1.3738</v>
@@ -1014,19 +1017,19 @@
         <v>5517935</v>
       </c>
       <c r="Q8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -1040,7 +1043,7 @@
         <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F9">
         <v>0.875</v>
@@ -1055,7 +1058,7 @@
         <v>2.107</v>
       </c>
       <c r="L9">
-        <v>0.77</v>
+        <v>0.82</v>
       </c>
       <c r="M9">
         <v>1.3738</v>
@@ -1070,19 +1073,19 @@
         <v>5517935</v>
       </c>
       <c r="Q9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -1096,7 +1099,7 @@
         <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F10">
         <v>2.265</v>
@@ -1111,7 +1114,7 @@
         <v>3.453</v>
       </c>
       <c r="L10">
-        <v>2.65</v>
+        <v>2.41</v>
       </c>
       <c r="M10">
         <v>2.8236</v>
@@ -1126,19 +1129,19 @@
         <v>5517935</v>
       </c>
       <c r="Q10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1152,7 +1155,7 @@
         <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F11">
         <v>2.265</v>
@@ -1167,7 +1170,7 @@
         <v>3.453</v>
       </c>
       <c r="L11">
-        <v>2.65</v>
+        <v>2.41</v>
       </c>
       <c r="M11">
         <v>2.8236</v>
@@ -1182,19 +1185,19 @@
         <v>5517935</v>
       </c>
       <c r="Q11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1208,7 +1211,7 @@
         <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F12">
         <v>0.228</v>
@@ -1223,7 +1226,7 @@
         <v>0.6287</v>
       </c>
       <c r="L12">
-        <v>0.38</v>
+        <v>0.322</v>
       </c>
       <c r="M12">
         <v>0.39576</v>
@@ -1238,19 +1241,19 @@
         <v>5517935</v>
       </c>
       <c r="Q12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1264,7 +1267,7 @@
         <v>43</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F13">
         <v>0.228</v>
@@ -1279,7 +1282,7 @@
         <v>0.6287</v>
       </c>
       <c r="L13">
-        <v>0.38</v>
+        <v>0.322</v>
       </c>
       <c r="M13">
         <v>0.39576</v>
@@ -1294,19 +1297,19 @@
         <v>5517935</v>
       </c>
       <c r="Q13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1323,7 +1326,7 @@
         <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F14">
         <v>0.06900000000000001</v>
@@ -1338,7 +1341,7 @@
         <v>0.2385</v>
       </c>
       <c r="L14">
-        <v>0.1275</v>
+        <v>0.114</v>
       </c>
       <c r="M14">
         <v>0.15576</v>
@@ -1353,19 +1356,19 @@
         <v>5517935</v>
       </c>
       <c r="Q14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1382,7 +1385,7 @@
         <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F15">
         <v>0.06900000000000001</v>
@@ -1397,7 +1400,7 @@
         <v>0.2385</v>
       </c>
       <c r="L15">
-        <v>0.1275</v>
+        <v>0.114</v>
       </c>
       <c r="M15">
         <v>0.15576</v>
@@ -1412,19 +1415,19 @@
         <v>5517935</v>
       </c>
       <c r="Q15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1441,13 +1444,13 @@
         <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F16">
         <v>0.21603</v>
       </c>
       <c r="G16">
-        <v>0.271142099673189</v>
+        <v>0.27109985449411</v>
       </c>
       <c r="H16">
         <v>0.854220528527582</v>
@@ -1456,7 +1459,7 @@
         <v>0.79747</v>
       </c>
       <c r="L16">
-        <v>0.19497</v>
+        <v>0.12911</v>
       </c>
       <c r="M16">
         <v>0.47429</v>
@@ -1471,19 +1474,19 @@
         <v>5517935</v>
       </c>
       <c r="Q16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -1500,13 +1503,13 @@
         <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F17">
         <v>0.21603</v>
       </c>
       <c r="G17">
-        <v>0.271142099673189</v>
+        <v>0.27109985449411</v>
       </c>
       <c r="H17">
         <v>0.854220528527582</v>
@@ -1515,7 +1518,7 @@
         <v>0.79747</v>
       </c>
       <c r="L17">
-        <v>0.19497</v>
+        <v>0.12911</v>
       </c>
       <c r="M17">
         <v>0.47429</v>
@@ -1530,19 +1533,19 @@
         <v>5517935</v>
       </c>
       <c r="Q17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1559,13 +1562,13 @@
         <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F18">
         <v>0.616</v>
       </c>
       <c r="G18">
-        <v>0.578541131053511</v>
+        <v>0.578304212768887</v>
       </c>
       <c r="H18">
         <v>1.76</v>
@@ -1574,7 +1577,7 @@
         <v>1.186</v>
       </c>
       <c r="L18">
-        <v>0.24</v>
+        <v>0.299</v>
       </c>
       <c r="M18">
         <v>0.89723</v>
@@ -1589,19 +1592,19 @@
         <v>5517935</v>
       </c>
       <c r="Q18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -1618,13 +1621,13 @@
         <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F19">
         <v>0.616</v>
       </c>
       <c r="G19">
-        <v>0.578541131053511</v>
+        <v>0.578304212768887</v>
       </c>
       <c r="H19">
         <v>1.76</v>
@@ -1633,7 +1636,7 @@
         <v>1.186</v>
       </c>
       <c r="L19">
-        <v>0.24</v>
+        <v>0.299</v>
       </c>
       <c r="M19">
         <v>0.89723</v>
@@ -1648,19 +1651,19 @@
         <v>5517935</v>
       </c>
       <c r="Q19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -1674,7 +1677,7 @@
         <v>44</v>
       </c>
       <c r="E20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F20">
         <v>0.97</v>
@@ -1689,7 +1692,7 @@
         <v>1.9775</v>
       </c>
       <c r="L20">
-        <v>0.875</v>
+        <v>0.87</v>
       </c>
       <c r="M20">
         <v>1.4247</v>
@@ -1704,19 +1707,19 @@
         <v>5517935</v>
       </c>
       <c r="Q20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -1730,7 +1733,7 @@
         <v>44</v>
       </c>
       <c r="E21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F21">
         <v>0.97</v>
@@ -1745,7 +1748,7 @@
         <v>1.9775</v>
       </c>
       <c r="L21">
-        <v>0.875</v>
+        <v>0.87</v>
       </c>
       <c r="M21">
         <v>1.4247</v>
@@ -1760,19 +1763,19 @@
         <v>5517935</v>
       </c>
       <c r="Q21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -1786,7 +1789,7 @@
         <v>44</v>
       </c>
       <c r="E22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F22">
         <v>2.29</v>
@@ -1801,7 +1804,7 @@
         <v>3.3635</v>
       </c>
       <c r="L22">
-        <v>2.66</v>
+        <v>2.41</v>
       </c>
       <c r="M22">
         <v>2.8447</v>
@@ -1816,19 +1819,19 @@
         <v>5517935</v>
       </c>
       <c r="Q22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -1842,7 +1845,7 @@
         <v>44</v>
       </c>
       <c r="E23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F23">
         <v>2.29</v>
@@ -1857,7 +1860,7 @@
         <v>3.3635</v>
       </c>
       <c r="L23">
-        <v>2.66</v>
+        <v>2.41</v>
       </c>
       <c r="M23">
         <v>2.8447</v>
@@ -1872,19 +1875,19 @@
         <v>5517935</v>
       </c>
       <c r="Q23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -1898,7 +1901,7 @@
         <v>44</v>
       </c>
       <c r="E24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F24">
         <v>0.222</v>
@@ -1913,7 +1916,7 @@
         <v>0.58835</v>
       </c>
       <c r="L24">
-        <v>0.365</v>
+        <v>0.292</v>
       </c>
       <c r="M24">
         <v>0.38199</v>
@@ -1928,19 +1931,19 @@
         <v>5517935</v>
       </c>
       <c r="Q24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -1954,7 +1957,7 @@
         <v>44</v>
       </c>
       <c r="E25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F25">
         <v>0.222</v>
@@ -1969,7 +1972,7 @@
         <v>0.58835</v>
       </c>
       <c r="L25">
-        <v>0.365</v>
+        <v>0.292</v>
       </c>
       <c r="M25">
         <v>0.38199</v>
@@ -1984,19 +1987,19 @@
         <v>5517935</v>
       </c>
       <c r="Q25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -2013,7 +2016,7 @@
         <v>45</v>
       </c>
       <c r="E26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F26">
         <v>0.074</v>
@@ -2028,7 +2031,7 @@
         <v>0.2314</v>
       </c>
       <c r="L26">
-        <v>0.1275</v>
+        <v>0.118</v>
       </c>
       <c r="M26">
         <v>0.15712</v>
@@ -2043,19 +2046,19 @@
         <v>5517935</v>
       </c>
       <c r="Q26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -2072,7 +2075,7 @@
         <v>45</v>
       </c>
       <c r="E27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F27">
         <v>0.074</v>
@@ -2087,7 +2090,7 @@
         <v>0.2314</v>
       </c>
       <c r="L27">
-        <v>0.1275</v>
+        <v>0.118</v>
       </c>
       <c r="M27">
         <v>0.15712</v>
@@ -2102,19 +2105,19 @@
         <v>5517935</v>
       </c>
       <c r="Q27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R27" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -2131,13 +2134,13 @@
         <v>45</v>
       </c>
       <c r="E28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F28">
         <v>334</v>
       </c>
       <c r="G28">
-        <v>628.122448979592</v>
+        <v>628.126530612245</v>
       </c>
       <c r="H28">
         <v>9700</v>
@@ -2152,7 +2155,7 @@
         <v>55.1020408163265</v>
       </c>
       <c r="L28">
-        <v>201.5</v>
+        <v>218.5</v>
       </c>
       <c r="M28">
         <v>725.3</v>
@@ -2167,19 +2170,19 @@
         <v>5517935</v>
       </c>
       <c r="Q28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S28" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -2196,13 +2199,13 @@
         <v>45</v>
       </c>
       <c r="E29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F29">
         <v>334</v>
       </c>
       <c r="G29">
-        <v>628.122448979592</v>
+        <v>628.126530612245</v>
       </c>
       <c r="H29">
         <v>9700</v>
@@ -2217,7 +2220,7 @@
         <v>55.1020408163265</v>
       </c>
       <c r="L29">
-        <v>201.5</v>
+        <v>218.5</v>
       </c>
       <c r="M29">
         <v>725.3</v>
@@ -2232,19 +2235,19 @@
         <v>5517935</v>
       </c>
       <c r="Q29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R29" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T29" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -2261,13 +2264,13 @@
         <v>45</v>
       </c>
       <c r="E30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F30">
         <v>334</v>
       </c>
       <c r="G30">
-        <v>628.122448979592</v>
+        <v>628.126530612245</v>
       </c>
       <c r="H30">
         <v>9700</v>
@@ -2282,7 +2285,7 @@
         <v>55.1020408163265</v>
       </c>
       <c r="L30">
-        <v>201.5</v>
+        <v>218.5</v>
       </c>
       <c r="M30">
         <v>725.3</v>
@@ -2297,19 +2300,19 @@
         <v>5517935</v>
       </c>
       <c r="Q30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S30" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -2326,13 +2329,13 @@
         <v>45</v>
       </c>
       <c r="E31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F31">
         <v>334</v>
       </c>
       <c r="G31">
-        <v>628.122448979592</v>
+        <v>628.126530612245</v>
       </c>
       <c r="H31">
         <v>9700</v>
@@ -2347,7 +2350,7 @@
         <v>55.1020408163265</v>
       </c>
       <c r="L31">
-        <v>201.5</v>
+        <v>218.5</v>
       </c>
       <c r="M31">
         <v>725.3</v>
@@ -2362,19 +2365,19 @@
         <v>5517935</v>
       </c>
       <c r="Q31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S31" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T31" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -2391,13 +2394,13 @@
         <v>45</v>
       </c>
       <c r="E32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F32">
         <v>0.16626</v>
       </c>
       <c r="G32">
-        <v>0.239414178053617</v>
+        <v>0.239333511018128</v>
       </c>
       <c r="H32">
         <v>0.85</v>
@@ -2406,7 +2409,7 @@
         <v>0.71339</v>
       </c>
       <c r="L32">
-        <v>0.14321</v>
+        <v>0.11233</v>
       </c>
       <c r="M32">
         <v>0.41434</v>
@@ -2421,19 +2424,19 @@
         <v>5517935</v>
       </c>
       <c r="Q32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S32" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T32" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -2450,13 +2453,13 @@
         <v>45</v>
       </c>
       <c r="E33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F33">
         <v>0.16626</v>
       </c>
       <c r="G33">
-        <v>0.239414178053617</v>
+        <v>0.239333511018128</v>
       </c>
       <c r="H33">
         <v>0.85</v>
@@ -2465,7 +2468,7 @@
         <v>0.71339</v>
       </c>
       <c r="L33">
-        <v>0.14321</v>
+        <v>0.11233</v>
       </c>
       <c r="M33">
         <v>0.41434</v>
@@ -2480,19 +2483,19 @@
         <v>5517935</v>
       </c>
       <c r="Q33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S33" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T33" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -2509,13 +2512,13 @@
         <v>45</v>
       </c>
       <c r="E34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F34">
         <v>0.627</v>
       </c>
       <c r="G34">
-        <v>0.601740116071675</v>
+        <v>0.60149911298904</v>
       </c>
       <c r="H34">
         <v>1.76</v>
@@ -2524,7 +2527,7 @@
         <v>1.108</v>
       </c>
       <c r="L34">
-        <v>0.305</v>
+        <v>0.394</v>
       </c>
       <c r="M34">
         <v>0.94232</v>
@@ -2539,19 +2542,19 @@
         <v>5517935</v>
       </c>
       <c r="Q34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S34" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T34" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -2568,13 +2571,13 @@
         <v>45</v>
       </c>
       <c r="E35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F35">
         <v>0.627</v>
       </c>
       <c r="G35">
-        <v>0.601740116071675</v>
+        <v>0.60149911298904</v>
       </c>
       <c r="H35">
         <v>1.76</v>
@@ -2583,7 +2586,7 @@
         <v>1.108</v>
       </c>
       <c r="L35">
-        <v>0.305</v>
+        <v>0.394</v>
       </c>
       <c r="M35">
         <v>0.94232</v>
@@ -2598,19 +2601,19 @@
         <v>5517935</v>
       </c>
       <c r="Q35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T35" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:21">
@@ -2624,7 +2627,7 @@
         <v>45</v>
       </c>
       <c r="E36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F36">
         <v>1.065</v>
@@ -2639,7 +2642,7 @@
         <v>1.99</v>
       </c>
       <c r="L36">
-        <v>0.875</v>
+        <v>0.88</v>
       </c>
       <c r="M36">
         <v>1.3948</v>
@@ -2654,19 +2657,19 @@
         <v>5517935</v>
       </c>
       <c r="Q36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T36" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:21">
@@ -2680,7 +2683,7 @@
         <v>45</v>
       </c>
       <c r="E37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F37">
         <v>1.065</v>
@@ -2695,7 +2698,7 @@
         <v>1.99</v>
       </c>
       <c r="L37">
-        <v>0.875</v>
+        <v>0.88</v>
       </c>
       <c r="M37">
         <v>1.3948</v>
@@ -2710,19 +2713,19 @@
         <v>5517935</v>
       </c>
       <c r="Q37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R37" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:21">
@@ -2736,7 +2739,7 @@
         <v>45</v>
       </c>
       <c r="E38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F38">
         <v>2.32</v>
@@ -2751,7 +2754,7 @@
         <v>3.372</v>
       </c>
       <c r="L38">
-        <v>2.645</v>
+        <v>2.41</v>
       </c>
       <c r="M38">
         <v>2.8464</v>
@@ -2766,19 +2769,19 @@
         <v>5517935</v>
       </c>
       <c r="Q38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R38" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T38" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:21">
@@ -2792,7 +2795,7 @@
         <v>45</v>
       </c>
       <c r="E39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F39">
         <v>2.32</v>
@@ -2807,7 +2810,7 @@
         <v>3.372</v>
       </c>
       <c r="L39">
-        <v>2.645</v>
+        <v>2.41</v>
       </c>
       <c r="M39">
         <v>2.8464</v>
@@ -2822,19 +2825,19 @@
         <v>5517935</v>
       </c>
       <c r="Q39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T39" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:21">
@@ -2848,7 +2851,7 @@
         <v>45</v>
       </c>
       <c r="E40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F40">
         <v>0.2355</v>
@@ -2863,7 +2866,7 @@
         <v>0.5911999999999999</v>
       </c>
       <c r="L40">
-        <v>0.37</v>
+        <v>0.322</v>
       </c>
       <c r="M40">
         <v>0.3838</v>
@@ -2878,19 +2881,19 @@
         <v>5517935</v>
       </c>
       <c r="Q40" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R40" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T40" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:21">
@@ -2904,7 +2907,7 @@
         <v>45</v>
       </c>
       <c r="E41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F41">
         <v>0.2355</v>
@@ -2919,7 +2922,7 @@
         <v>0.5911999999999999</v>
       </c>
       <c r="L41">
-        <v>0.37</v>
+        <v>0.322</v>
       </c>
       <c r="M41">
         <v>0.3838</v>
@@ -2934,19 +2937,19 @@
         <v>5517935</v>
       </c>
       <c r="Q41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R41" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T41" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:21">
@@ -2963,7 +2966,7 @@
         <v>46</v>
       </c>
       <c r="E42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F42">
         <v>0.0785</v>
@@ -2978,7 +2981,7 @@
         <v>0.2128</v>
       </c>
       <c r="L42">
-        <v>0.1555</v>
+        <v>0.127</v>
       </c>
       <c r="M42">
         <v>0.16448</v>
@@ -2993,19 +2996,19 @@
         <v>5517935</v>
       </c>
       <c r="Q42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R42" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S42" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T42" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:21">
@@ -3022,7 +3025,7 @@
         <v>46</v>
       </c>
       <c r="E43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F43">
         <v>0.0785</v>
@@ -3037,7 +3040,7 @@
         <v>0.2128</v>
       </c>
       <c r="L43">
-        <v>0.1555</v>
+        <v>0.127</v>
       </c>
       <c r="M43">
         <v>0.16448</v>
@@ -3052,19 +3055,19 @@
         <v>5517935</v>
       </c>
       <c r="Q43" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R43" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S43" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T43" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U43" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:21">
@@ -3081,13 +3084,13 @@
         <v>46</v>
       </c>
       <c r="E44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F44">
-        <v>262.5</v>
+        <v>262.6</v>
       </c>
       <c r="G44">
-        <v>518.163838671249</v>
+        <v>518.093085736056</v>
       </c>
       <c r="H44">
         <v>9700</v>
@@ -3102,7 +3105,7 @@
         <v>50</v>
       </c>
       <c r="L44">
-        <v>201.5</v>
+        <v>186</v>
       </c>
       <c r="M44">
         <v>570</v>
@@ -3117,19 +3120,19 @@
         <v>5517935</v>
       </c>
       <c r="Q44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R44" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S44" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T44" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:21">
@@ -3146,13 +3149,13 @@
         <v>46</v>
       </c>
       <c r="E45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F45">
-        <v>262.5</v>
+        <v>262.6</v>
       </c>
       <c r="G45">
-        <v>518.163838671249</v>
+        <v>518.093085736056</v>
       </c>
       <c r="H45">
         <v>9700</v>
@@ -3167,7 +3170,7 @@
         <v>50</v>
       </c>
       <c r="L45">
-        <v>201.5</v>
+        <v>186</v>
       </c>
       <c r="M45">
         <v>570</v>
@@ -3182,19 +3185,19 @@
         <v>5517935</v>
       </c>
       <c r="Q45" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R45" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S45" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T45" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U45" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:21">
@@ -3211,13 +3214,13 @@
         <v>46</v>
       </c>
       <c r="E46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F46">
-        <v>262.5</v>
+        <v>262.6</v>
       </c>
       <c r="G46">
-        <v>518.163838671249</v>
+        <v>518.093085736056</v>
       </c>
       <c r="H46">
         <v>9700</v>
@@ -3232,7 +3235,7 @@
         <v>50</v>
       </c>
       <c r="L46">
-        <v>201.5</v>
+        <v>186</v>
       </c>
       <c r="M46">
         <v>570</v>
@@ -3247,19 +3250,19 @@
         <v>5517935</v>
       </c>
       <c r="Q46" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R46" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S46" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T46" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U46" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:21">
@@ -3276,13 +3279,13 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F47">
-        <v>262.5</v>
+        <v>262.6</v>
       </c>
       <c r="G47">
-        <v>518.163838671249</v>
+        <v>518.093085736056</v>
       </c>
       <c r="H47">
         <v>9700</v>
@@ -3297,7 +3300,7 @@
         <v>50</v>
       </c>
       <c r="L47">
-        <v>201.5</v>
+        <v>186</v>
       </c>
       <c r="M47">
         <v>570</v>
@@ -3312,19 +3315,19 @@
         <v>5517935</v>
       </c>
       <c r="Q47" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R47" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S47" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T47" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U47" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:21">
@@ -3341,13 +3344,13 @@
         <v>46</v>
       </c>
       <c r="E48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F48">
         <v>0.12609</v>
       </c>
       <c r="G48">
-        <v>0.184900156157885</v>
+        <v>0.184632813506565</v>
       </c>
       <c r="H48">
         <v>0.83691117624023</v>
@@ -3356,7 +3359,7 @@
         <v>0.60837</v>
       </c>
       <c r="L48">
-        <v>0.07829999999999999</v>
+        <v>0.06419</v>
       </c>
       <c r="M48">
         <v>0.34424</v>
@@ -3371,19 +3374,19 @@
         <v>5517935</v>
       </c>
       <c r="Q48" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R48" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S48" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T48" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="1:21">
@@ -3400,13 +3403,13 @@
         <v>46</v>
       </c>
       <c r="E49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F49">
         <v>0.12609</v>
       </c>
       <c r="G49">
-        <v>0.184900156157885</v>
+        <v>0.184632813506565</v>
       </c>
       <c r="H49">
         <v>0.83691117624023</v>
@@ -3415,7 +3418,7 @@
         <v>0.60837</v>
       </c>
       <c r="L49">
-        <v>0.07829999999999999</v>
+        <v>0.06419</v>
       </c>
       <c r="M49">
         <v>0.34424</v>
@@ -3430,19 +3433,19 @@
         <v>5517935</v>
       </c>
       <c r="Q49" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R49" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S49" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T49" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:21">
@@ -3459,13 +3462,13 @@
         <v>46</v>
       </c>
       <c r="E50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F50">
         <v>0.608</v>
       </c>
       <c r="G50">
-        <v>0.57744650083364</v>
+        <v>0.577315348290507</v>
       </c>
       <c r="H50">
         <v>1.76</v>
@@ -3474,7 +3477,7 @@
         <v>1.086</v>
       </c>
       <c r="L50">
-        <v>0.305</v>
+        <v>0.316</v>
       </c>
       <c r="M50">
         <v>0.88296</v>
@@ -3489,19 +3492,19 @@
         <v>5517935</v>
       </c>
       <c r="Q50" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S50" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T50" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U50" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:21">
@@ -3518,13 +3521,13 @@
         <v>46</v>
       </c>
       <c r="E51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F51">
         <v>0.608</v>
       </c>
       <c r="G51">
-        <v>0.57744650083364</v>
+        <v>0.577315348290507</v>
       </c>
       <c r="H51">
         <v>1.76</v>
@@ -3533,7 +3536,7 @@
         <v>1.086</v>
       </c>
       <c r="L51">
-        <v>0.305</v>
+        <v>0.316</v>
       </c>
       <c r="M51">
         <v>0.88296</v>
@@ -3548,19 +3551,19 @@
         <v>5517935</v>
       </c>
       <c r="Q51" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R51" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S51" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T51" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U51" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:21">
@@ -3574,7 +3577,7 @@
         <v>46</v>
       </c>
       <c r="E52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F52">
         <v>0.88</v>
@@ -3604,19 +3607,19 @@
         <v>5517935</v>
       </c>
       <c r="Q52" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R52" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S52" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T52" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U52" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:21">
@@ -3630,7 +3633,7 @@
         <v>46</v>
       </c>
       <c r="E53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F53">
         <v>0.88</v>
@@ -3660,19 +3663,19 @@
         <v>5517935</v>
       </c>
       <c r="Q53" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R53" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S53" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T53" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U53" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:21">
@@ -3686,7 +3689,7 @@
         <v>46</v>
       </c>
       <c r="E54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F54">
         <v>2.21</v>
@@ -3701,7 +3704,7 @@
         <v>3.234</v>
       </c>
       <c r="L54">
-        <v>2.12</v>
+        <v>1.99</v>
       </c>
       <c r="M54">
         <v>2.81</v>
@@ -3716,19 +3719,19 @@
         <v>5517935</v>
       </c>
       <c r="Q54" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R54" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S54" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T54" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U54" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55" spans="1:21">
@@ -3742,7 +3745,7 @@
         <v>46</v>
       </c>
       <c r="E55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F55">
         <v>2.21</v>
@@ -3757,7 +3760,7 @@
         <v>3.234</v>
       </c>
       <c r="L55">
-        <v>2.12</v>
+        <v>1.99</v>
       </c>
       <c r="M55">
         <v>2.81</v>
@@ -3772,19 +3775,19 @@
         <v>5517935</v>
       </c>
       <c r="Q55" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R55" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S55" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T55" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U55" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56" spans="1:21">
@@ -3798,7 +3801,7 @@
         <v>46</v>
       </c>
       <c r="E56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F56">
         <v>0.2525</v>
@@ -3813,7 +3816,7 @@
         <v>0.5454</v>
       </c>
       <c r="L56">
-        <v>0.37</v>
+        <v>0.292</v>
       </c>
       <c r="M56">
         <v>0.37028</v>
@@ -3828,19 +3831,19 @@
         <v>5517935</v>
       </c>
       <c r="Q56" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R56" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S56" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T56" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:21">
@@ -3854,7 +3857,7 @@
         <v>46</v>
       </c>
       <c r="E57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F57">
         <v>0.2525</v>
@@ -3869,7 +3872,7 @@
         <v>0.5454</v>
       </c>
       <c r="L57">
-        <v>0.37</v>
+        <v>0.292</v>
       </c>
       <c r="M57">
         <v>0.37028</v>
@@ -3884,19 +3887,969 @@
         <v>5517935</v>
       </c>
       <c r="Q57" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R57" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S57" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T57" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="U57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21">
+      <c r="A58" t="s">
+        <v>21</v>
+      </c>
+      <c r="B58" t="s">
+        <v>22</v>
+      </c>
+      <c r="C58" t="s">
+        <v>38</v>
+      </c>
+      <c r="D58" t="s">
+        <v>47</v>
+      </c>
+      <c r="E58" t="s">
+        <v>48</v>
+      </c>
+      <c r="F58">
+        <v>0.0785</v>
+      </c>
+      <c r="G58">
+        <v>0.0992586206896552</v>
+      </c>
+      <c r="H58">
+        <v>0.368</v>
+      </c>
+      <c r="I58">
+        <v>0.2128</v>
+      </c>
+      <c r="L58">
+        <v>0.117</v>
+      </c>
+      <c r="M58">
+        <v>0.16448</v>
+      </c>
+      <c r="N58">
+        <v>0.2046</v>
+      </c>
+      <c r="O58">
+        <v>1790056</v>
+      </c>
+      <c r="P58">
+        <v>5517935</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>49</v>
+      </c>
+      <c r="R58" t="s">
+        <v>50</v>
+      </c>
+      <c r="S58" t="s">
+        <v>51</v>
+      </c>
+      <c r="T58" t="s">
+        <v>52</v>
+      </c>
+      <c r="U58" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21">
+      <c r="A59" t="s">
+        <v>21</v>
+      </c>
+      <c r="B59" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59" t="s">
+        <v>38</v>
+      </c>
+      <c r="D59" t="s">
+        <v>47</v>
+      </c>
+      <c r="E59" t="s">
+        <v>48</v>
+      </c>
+      <c r="F59">
+        <v>0.0785</v>
+      </c>
+      <c r="G59">
+        <v>0.0992586206896552</v>
+      </c>
+      <c r="H59">
+        <v>0.368</v>
+      </c>
+      <c r="I59">
+        <v>0.2128</v>
+      </c>
+      <c r="L59">
+        <v>0.117</v>
+      </c>
+      <c r="M59">
+        <v>0.16448</v>
+      </c>
+      <c r="N59">
+        <v>0.2046</v>
+      </c>
+      <c r="O59">
+        <v>1790056</v>
+      </c>
+      <c r="P59">
+        <v>5517935</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>49</v>
+      </c>
+      <c r="R59" t="s">
+        <v>50</v>
+      </c>
+      <c r="S59" t="s">
+        <v>51</v>
+      </c>
+      <c r="T59" t="s">
+        <v>52</v>
+      </c>
+      <c r="U59" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21">
+      <c r="A60" t="s">
+        <v>21</v>
+      </c>
+      <c r="B60" t="s">
+        <v>34</v>
+      </c>
+      <c r="C60" t="s">
+        <v>38</v>
+      </c>
+      <c r="D60" t="s">
+        <v>47</v>
+      </c>
+      <c r="E60" t="s">
+        <v>48</v>
+      </c>
+      <c r="F60">
+        <v>213.4</v>
+      </c>
+      <c r="G60">
+        <v>351.868947805021</v>
+      </c>
+      <c r="H60">
+        <v>2600</v>
+      </c>
+      <c r="I60">
+        <v>1120</v>
+      </c>
+      <c r="J60">
+        <v>17.2413793103448</v>
+      </c>
+      <c r="K60">
+        <v>43.1034482758621</v>
+      </c>
+      <c r="L60">
+        <v>186</v>
+      </c>
+      <c r="M60">
+        <v>539.184</v>
+      </c>
+      <c r="N60">
+        <v>877.6</v>
+      </c>
+      <c r="O60">
+        <v>1790056</v>
+      </c>
+      <c r="P60">
+        <v>5517935</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>49</v>
+      </c>
+      <c r="R60" t="s">
+        <v>50</v>
+      </c>
+      <c r="S60" t="s">
+        <v>51</v>
+      </c>
+      <c r="T60" t="s">
+        <v>52</v>
+      </c>
+      <c r="U60" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21">
+      <c r="A61" t="s">
+        <v>21</v>
+      </c>
+      <c r="B61" t="s">
+        <v>35</v>
+      </c>
+      <c r="C61" t="s">
+        <v>39</v>
+      </c>
+      <c r="D61" t="s">
+        <v>47</v>
+      </c>
+      <c r="E61" t="s">
+        <v>48</v>
+      </c>
+      <c r="F61">
+        <v>213.4</v>
+      </c>
+      <c r="G61">
+        <v>351.868947805021</v>
+      </c>
+      <c r="H61">
+        <v>2600</v>
+      </c>
+      <c r="I61">
+        <v>1120</v>
+      </c>
+      <c r="J61">
+        <v>17.2413793103448</v>
+      </c>
+      <c r="K61">
+        <v>43.1034482758621</v>
+      </c>
+      <c r="L61">
+        <v>186</v>
+      </c>
+      <c r="M61">
+        <v>539.184</v>
+      </c>
+      <c r="N61">
+        <v>877.6</v>
+      </c>
+      <c r="O61">
+        <v>1790056</v>
+      </c>
+      <c r="P61">
+        <v>5517935</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>49</v>
+      </c>
+      <c r="R61" t="s">
+        <v>50</v>
+      </c>
+      <c r="S61" t="s">
+        <v>51</v>
+      </c>
+      <c r="T61" t="s">
+        <v>52</v>
+      </c>
+      <c r="U61" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21">
+      <c r="A62" t="s">
+        <v>21</v>
+      </c>
+      <c r="B62" t="s">
+        <v>36</v>
+      </c>
+      <c r="C62" t="s">
+        <v>38</v>
+      </c>
+      <c r="D62" t="s">
+        <v>47</v>
+      </c>
+      <c r="E62" t="s">
+        <v>48</v>
+      </c>
+      <c r="F62">
+        <v>213.4</v>
+      </c>
+      <c r="G62">
+        <v>351.868947805021</v>
+      </c>
+      <c r="H62">
+        <v>2600</v>
+      </c>
+      <c r="I62">
+        <v>1120</v>
+      </c>
+      <c r="J62">
+        <v>17.2413793103448</v>
+      </c>
+      <c r="K62">
+        <v>43.1034482758621</v>
+      </c>
+      <c r="L62">
+        <v>186</v>
+      </c>
+      <c r="M62">
+        <v>539.184</v>
+      </c>
+      <c r="N62">
+        <v>877.6</v>
+      </c>
+      <c r="O62">
+        <v>1790056</v>
+      </c>
+      <c r="P62">
+        <v>5517935</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>49</v>
+      </c>
+      <c r="R62" t="s">
+        <v>50</v>
+      </c>
+      <c r="S62" t="s">
+        <v>51</v>
+      </c>
+      <c r="T62" t="s">
+        <v>52</v>
+      </c>
+      <c r="U62" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21">
+      <c r="A63" t="s">
+        <v>21</v>
+      </c>
+      <c r="B63" t="s">
+        <v>37</v>
+      </c>
+      <c r="C63" t="s">
+        <v>39</v>
+      </c>
+      <c r="D63" t="s">
+        <v>47</v>
+      </c>
+      <c r="E63" t="s">
+        <v>48</v>
+      </c>
+      <c r="F63">
+        <v>213.4</v>
+      </c>
+      <c r="G63">
+        <v>351.868947805021</v>
+      </c>
+      <c r="H63">
+        <v>2600</v>
+      </c>
+      <c r="I63">
+        <v>1120</v>
+      </c>
+      <c r="J63">
+        <v>17.2413793103448</v>
+      </c>
+      <c r="K63">
+        <v>43.1034482758621</v>
+      </c>
+      <c r="L63">
+        <v>186</v>
+      </c>
+      <c r="M63">
+        <v>539.184</v>
+      </c>
+      <c r="N63">
+        <v>877.6</v>
+      </c>
+      <c r="O63">
+        <v>1790056</v>
+      </c>
+      <c r="P63">
+        <v>5517935</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>49</v>
+      </c>
+      <c r="R63" t="s">
+        <v>50</v>
+      </c>
+      <c r="S63" t="s">
+        <v>51</v>
+      </c>
+      <c r="T63" t="s">
+        <v>52</v>
+      </c>
+      <c r="U63" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21">
+      <c r="A64" t="s">
+        <v>21</v>
+      </c>
+      <c r="B64" t="s">
+        <v>24</v>
+      </c>
+      <c r="C64" t="s">
+        <v>39</v>
+      </c>
+      <c r="D64" t="s">
+        <v>47</v>
+      </c>
+      <c r="E64" t="s">
+        <v>48</v>
+      </c>
+      <c r="F64">
+        <v>0.11039</v>
+      </c>
+      <c r="G64">
+        <v>0.190239950051394</v>
+      </c>
+      <c r="H64">
+        <v>1.67343256333186</v>
+      </c>
+      <c r="I64">
+        <v>0.6269400000000001</v>
+      </c>
+      <c r="L64">
+        <v>0.05248</v>
+      </c>
+      <c r="M64">
+        <v>0.34424</v>
+      </c>
+      <c r="N64">
+        <v>0.44129</v>
+      </c>
+      <c r="O64">
+        <v>1790056</v>
+      </c>
+      <c r="P64">
+        <v>5517935</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>49</v>
+      </c>
+      <c r="R64" t="s">
+        <v>50</v>
+      </c>
+      <c r="S64" t="s">
+        <v>51</v>
+      </c>
+      <c r="T64" t="s">
+        <v>52</v>
+      </c>
+      <c r="U64" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21">
+      <c r="A65" t="s">
+        <v>21</v>
+      </c>
+      <c r="B65" t="s">
+        <v>25</v>
+      </c>
+      <c r="C65" t="s">
+        <v>40</v>
+      </c>
+      <c r="D65" t="s">
+        <v>47</v>
+      </c>
+      <c r="E65" t="s">
+        <v>48</v>
+      </c>
+      <c r="F65">
+        <v>0.11039</v>
+      </c>
+      <c r="G65">
+        <v>0.190239950051394</v>
+      </c>
+      <c r="H65">
+        <v>1.67343256333186</v>
+      </c>
+      <c r="I65">
+        <v>0.6269400000000001</v>
+      </c>
+      <c r="L65">
+        <v>0.05248</v>
+      </c>
+      <c r="M65">
+        <v>0.34424</v>
+      </c>
+      <c r="N65">
+        <v>0.44129</v>
+      </c>
+      <c r="O65">
+        <v>1790056</v>
+      </c>
+      <c r="P65">
+        <v>5517935</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>49</v>
+      </c>
+      <c r="R65" t="s">
+        <v>50</v>
+      </c>
+      <c r="S65" t="s">
+        <v>51</v>
+      </c>
+      <c r="T65" t="s">
+        <v>52</v>
+      </c>
+      <c r="U65" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21">
+      <c r="A66" t="s">
+        <v>21</v>
+      </c>
+      <c r="B66" t="s">
+        <v>26</v>
+      </c>
+      <c r="C66" t="s">
+        <v>41</v>
+      </c>
+      <c r="D66" t="s">
+        <v>47</v>
+      </c>
+      <c r="E66" t="s">
+        <v>48</v>
+      </c>
+      <c r="F66">
+        <v>0.469</v>
+      </c>
+      <c r="G66">
+        <v>0.48437973050827</v>
+      </c>
+      <c r="H66">
+        <v>1.24</v>
+      </c>
+      <c r="I66">
+        <v>0.9776</v>
+      </c>
+      <c r="L66">
+        <v>0.265</v>
+      </c>
+      <c r="M66">
+        <v>0.81484</v>
+      </c>
+      <c r="N66">
+        <v>0.8852</v>
+      </c>
+      <c r="O66">
+        <v>1790056</v>
+      </c>
+      <c r="P66">
+        <v>5517935</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>49</v>
+      </c>
+      <c r="R66" t="s">
+        <v>50</v>
+      </c>
+      <c r="S66" t="s">
+        <v>51</v>
+      </c>
+      <c r="T66" t="s">
+        <v>52</v>
+      </c>
+      <c r="U66" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21">
+      <c r="A67" t="s">
+        <v>21</v>
+      </c>
+      <c r="B67" t="s">
+        <v>27</v>
+      </c>
+      <c r="C67" t="s">
+        <v>41</v>
+      </c>
+      <c r="D67" t="s">
+        <v>47</v>
+      </c>
+      <c r="E67" t="s">
+        <v>48</v>
+      </c>
+      <c r="F67">
+        <v>0.469</v>
+      </c>
+      <c r="G67">
+        <v>0.48437973050827</v>
+      </c>
+      <c r="H67">
+        <v>1.24</v>
+      </c>
+      <c r="I67">
+        <v>0.9776</v>
+      </c>
+      <c r="L67">
+        <v>0.265</v>
+      </c>
+      <c r="M67">
+        <v>0.81484</v>
+      </c>
+      <c r="N67">
+        <v>0.8852</v>
+      </c>
+      <c r="O67">
+        <v>1790056</v>
+      </c>
+      <c r="P67">
+        <v>5517935</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>49</v>
+      </c>
+      <c r="R67" t="s">
+        <v>50</v>
+      </c>
+      <c r="S67" t="s">
+        <v>51</v>
+      </c>
+      <c r="T67" t="s">
+        <v>52</v>
+      </c>
+      <c r="U67" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21">
+      <c r="A68" t="s">
+        <v>21</v>
+      </c>
+      <c r="B68" t="s">
+        <v>28</v>
+      </c>
+      <c r="D68" t="s">
+        <v>47</v>
+      </c>
+      <c r="E68" t="s">
+        <v>48</v>
+      </c>
+      <c r="F68">
+        <v>0.715</v>
+      </c>
+      <c r="G68">
+        <v>0.782378858565696</v>
+      </c>
+      <c r="H68">
+        <v>2.2</v>
+      </c>
+      <c r="I68">
+        <v>1.748</v>
+      </c>
+      <c r="L68">
+        <v>0.44</v>
+      </c>
+      <c r="M68">
+        <v>1.2164</v>
+      </c>
+      <c r="N68">
+        <v>1.436</v>
+      </c>
+      <c r="O68">
+        <v>1790056</v>
+      </c>
+      <c r="P68">
+        <v>5517935</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>49</v>
+      </c>
+      <c r="R68" t="s">
+        <v>50</v>
+      </c>
+      <c r="S68" t="s">
+        <v>51</v>
+      </c>
+      <c r="T68" t="s">
+        <v>52</v>
+      </c>
+      <c r="U68" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21">
+      <c r="A69" t="s">
+        <v>21</v>
+      </c>
+      <c r="B69" t="s">
+        <v>29</v>
+      </c>
+      <c r="D69" t="s">
+        <v>47</v>
+      </c>
+      <c r="E69" t="s">
+        <v>48</v>
+      </c>
+      <c r="F69">
+        <v>0.715</v>
+      </c>
+      <c r="G69">
+        <v>0.782378858565696</v>
+      </c>
+      <c r="H69">
+        <v>2.2</v>
+      </c>
+      <c r="I69">
+        <v>1.748</v>
+      </c>
+      <c r="L69">
+        <v>0.44</v>
+      </c>
+      <c r="M69">
+        <v>1.2164</v>
+      </c>
+      <c r="N69">
+        <v>1.436</v>
+      </c>
+      <c r="O69">
+        <v>1790056</v>
+      </c>
+      <c r="P69">
+        <v>5517935</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>49</v>
+      </c>
+      <c r="R69" t="s">
+        <v>50</v>
+      </c>
+      <c r="S69" t="s">
+        <v>51</v>
+      </c>
+      <c r="T69" t="s">
+        <v>52</v>
+      </c>
+      <c r="U69" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21">
+      <c r="A70" t="s">
+        <v>21</v>
+      </c>
+      <c r="B70" t="s">
+        <v>30</v>
+      </c>
+      <c r="D70" t="s">
+        <v>47</v>
+      </c>
+      <c r="E70" t="s">
+        <v>48</v>
+      </c>
+      <c r="F70">
+        <v>2.1</v>
+      </c>
+      <c r="G70">
+        <v>2.19862068965517</v>
+      </c>
+      <c r="H70">
+        <v>3.57</v>
+      </c>
+      <c r="I70">
+        <v>3.148</v>
+      </c>
+      <c r="L70">
+        <v>1.92</v>
+      </c>
+      <c r="M70">
+        <v>2.8148</v>
+      </c>
+      <c r="N70">
+        <v>3.0944</v>
+      </c>
+      <c r="O70">
+        <v>1790056</v>
+      </c>
+      <c r="P70">
+        <v>5517935</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>49</v>
+      </c>
+      <c r="R70" t="s">
+        <v>50</v>
+      </c>
+      <c r="S70" t="s">
+        <v>51</v>
+      </c>
+      <c r="T70" t="s">
+        <v>52</v>
+      </c>
+      <c r="U70" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21">
+      <c r="A71" t="s">
+        <v>21</v>
+      </c>
+      <c r="B71" t="s">
+        <v>31</v>
+      </c>
+      <c r="D71" t="s">
+        <v>47</v>
+      </c>
+      <c r="E71" t="s">
+        <v>48</v>
+      </c>
+      <c r="F71">
+        <v>2.1</v>
+      </c>
+      <c r="G71">
+        <v>2.19862068965517</v>
+      </c>
+      <c r="H71">
+        <v>3.57</v>
+      </c>
+      <c r="I71">
+        <v>3.148</v>
+      </c>
+      <c r="L71">
+        <v>1.92</v>
+      </c>
+      <c r="M71">
+        <v>2.8148</v>
+      </c>
+      <c r="N71">
+        <v>3.0944</v>
+      </c>
+      <c r="O71">
+        <v>1790056</v>
+      </c>
+      <c r="P71">
+        <v>5517935</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>49</v>
+      </c>
+      <c r="R71" t="s">
+        <v>50</v>
+      </c>
+      <c r="S71" t="s">
+        <v>51</v>
+      </c>
+      <c r="T71" t="s">
+        <v>52</v>
+      </c>
+      <c r="U71" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21">
+      <c r="A72" t="s">
+        <v>21</v>
+      </c>
+      <c r="B72" t="s">
+        <v>32</v>
+      </c>
+      <c r="D72" t="s">
+        <v>47</v>
+      </c>
+      <c r="E72" t="s">
+        <v>48</v>
+      </c>
+      <c r="F72">
+        <v>0.237</v>
+      </c>
+      <c r="G72">
+        <v>0.276620689655172</v>
+      </c>
+      <c r="H72">
+        <v>1.17</v>
+      </c>
+      <c r="I72">
+        <v>0.539</v>
+      </c>
+      <c r="L72">
+        <v>0.292</v>
+      </c>
+      <c r="M72">
+        <v>0.3692</v>
+      </c>
+      <c r="N72">
+        <v>0.42978</v>
+      </c>
+      <c r="O72">
+        <v>1790056</v>
+      </c>
+      <c r="P72">
+        <v>5517935</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>49</v>
+      </c>
+      <c r="R72" t="s">
+        <v>50</v>
+      </c>
+      <c r="S72" t="s">
+        <v>51</v>
+      </c>
+      <c r="T72" t="s">
+        <v>52</v>
+      </c>
+      <c r="U72" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21">
+      <c r="A73" t="s">
+        <v>21</v>
+      </c>
+      <c r="B73" t="s">
+        <v>33</v>
+      </c>
+      <c r="D73" t="s">
+        <v>47</v>
+      </c>
+      <c r="E73" t="s">
+        <v>48</v>
+      </c>
+      <c r="F73">
+        <v>0.237</v>
+      </c>
+      <c r="G73">
+        <v>0.276620689655172</v>
+      </c>
+      <c r="H73">
+        <v>1.17</v>
+      </c>
+      <c r="I73">
+        <v>0.539</v>
+      </c>
+      <c r="L73">
+        <v>0.292</v>
+      </c>
+      <c r="M73">
+        <v>0.3692</v>
+      </c>
+      <c r="N73">
+        <v>0.42978</v>
+      </c>
+      <c r="O73">
+        <v>1790056</v>
+      </c>
+      <c r="P73">
+        <v>5517935</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>49</v>
+      </c>
+      <c r="R73" t="s">
+        <v>50</v>
+      </c>
+      <c r="S73" t="s">
+        <v>51</v>
+      </c>
+      <c r="T73" t="s">
+        <v>52</v>
+      </c>
+      <c r="U73" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
